--- a/biology/Médecine/Métaphyse/Métaphyse.xlsx
+++ b/biology/Médecine/Métaphyse/Métaphyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9taphyse</t>
+          <t>Métaphyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La métaphyse est la région intermédiaire des os longs située entre la diaphyse et une épiphyse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9taphyse</t>
+          <t>Métaphyse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la période de croissance osseuse, la métaphyse peut être divisée anatomiquement en trois composantes tissulaires : 
 un partie cartilagineuse : le cartilage épiphysaire,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9taphyse</t>
+          <t>Métaphyse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas de saturnisme chronique et important, apparait sur les radiographie osseuses d'os longs une ligne blanche parfois dite métaphyséale. Elle se forme aux environs de la zone de production du cartilage[1]. ce phénomène a notamment été décrit en 1933 par Vogt[2] puis par Park &amp; al. [3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas de saturnisme chronique et important, apparait sur les radiographie osseuses d'os longs une ligne blanche parfois dite métaphyséale. Elle se forme aux environs de la zone de production du cartilage. ce phénomène a notamment été décrit en 1933 par Vogt puis par Park &amp; al. 
 </t>
         </is>
       </c>
